--- a/creating excel/data9.xlsx
+++ b/creating excel/data9.xlsx
@@ -7,19 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="data9.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Data 9 Team" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>data9</t>
-  </si>
-  <si>
-    <t>Sassy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>sassy</t>
+  </si>
+  <si>
+    <t>siayn</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>jonny</t>
+  </si>
+  <si>
+    <t>sparta</t>
   </si>
 </sst>
 </file>
@@ -351,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,6 +376,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
